--- a/DSA_questions.xlsx
+++ b/DSA_questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF452F7-A17D-4BD6-9D66-78A4740912BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F791F783-C85F-49E9-9050-9DA0C3017ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1903,24 +1903,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E416" sqref="E416"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.4140625" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.95">
+    <row r="1" spans="1:3" ht="25">
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="21.35">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1934,7 @@
     <row r="5" spans="1:3">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="21.35">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21.35">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21.35">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.35">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21.35">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.35">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21.35">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21.35">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21.35">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21.35">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21.35">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21.35">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.35">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21.35">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21.35">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21.35">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21.35">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21.35">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.35">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.35">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21.35">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21.35">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21.35">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21.35">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21.35">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21.35">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21.35">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21.35">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21.35">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21.35">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21.35">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.35">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21.35">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21.35">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21.35">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21.35">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -2330,16 +2330,16 @@
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21.35">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" ht="21.35">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" ht="21.35">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
         <v>41</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21.35">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
         <v>41</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21.35">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
         <v>41</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21.35">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
         <v>41</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21.35">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
         <v>41</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21.35">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="8" t="s">
         <v>41</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21.35">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="8" t="s">
         <v>41</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21.35">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="8" t="s">
         <v>41</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21.35">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="8" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21.35">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="8" t="s">
         <v>41</v>
       </c>
@@ -2449,12 +2449,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21.35">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21.35">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21.35">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
         <v>52</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21.35">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
         <v>52</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21.35">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
         <v>52</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21.35">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21.35">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21.35">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
         <v>52</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21.35">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
         <v>52</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21.35">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
         <v>52</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21.35">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21.35">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21.35">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
         <v>52</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21.35">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="5" t="s">
         <v>52</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21.35">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="5" t="s">
         <v>52</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21.35">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="5" t="s">
         <v>52</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21.35">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="5" t="s">
         <v>52</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21.35">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21.35">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
         <v>52</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21.35">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
         <v>52</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21.35">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
         <v>52</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21.35">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
         <v>52</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21.35">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
         <v>52</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21.35">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
         <v>52</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21.35">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
         <v>52</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21.35">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
         <v>52</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21.35">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
         <v>52</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21.35">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
         <v>52</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21.35">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
         <v>52</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21.35">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
         <v>52</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21.35">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
         <v>52</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21.35">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
         <v>52</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21.35">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
         <v>52</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21.35">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
         <v>52</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21.35">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
         <v>52</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21.35">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
         <v>52</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21.35">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
         <v>52</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21.35">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
         <v>52</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21.35">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
         <v>52</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21.35">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
         <v>52</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21.35">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
         <v>52</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21.35">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
         <v>52</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21.35">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="5" t="s">
         <v>52</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21.35">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="5" t="s">
         <v>52</v>
       </c>
@@ -2927,12 +2927,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21.35">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21.35">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
         <v>95</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21.35">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
         <v>95</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21.35">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
         <v>95</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21.35">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
         <v>95</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21.35">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
         <v>95</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21.35">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
         <v>95</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21.35">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
         <v>95</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21.35">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
         <v>95</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21.35">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
         <v>95</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21.35">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
         <v>95</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21.35">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
         <v>95</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21.35">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
         <v>95</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21.35">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
         <v>95</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21.35">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
         <v>95</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21.35">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
         <v>95</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21.35">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
         <v>95</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21.35">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
         <v>95</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21.35">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
         <v>95</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21.35">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
         <v>95</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21.35">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
         <v>95</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21.35">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
         <v>95</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21.35">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
         <v>95</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21.35">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
         <v>95</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21.35">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
         <v>95</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21.35">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
         <v>95</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21.35">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
         <v>95</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21.35">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
         <v>95</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21.35">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
         <v>95</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21.35">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
         <v>95</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21.35">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
         <v>95</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21.35">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
         <v>95</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21.35">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
         <v>95</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21.35">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
         <v>95</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21.35">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
         <v>95</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21.35">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
         <v>95</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21.35">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
         <v>95</v>
       </c>
@@ -3328,11 +3328,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21.35">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21.35">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
         <v>132</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21.35">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
         <v>132</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21.35">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
         <v>132</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21.35">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
         <v>132</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21.35">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
         <v>132</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21.35">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
         <v>132</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21.35">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
         <v>132</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21.35">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
         <v>132</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21.35">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
         <v>132</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21.35">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
         <v>132</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21.35">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
         <v>132</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21.35">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
         <v>132</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21.35">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
         <v>132</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21.35">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
         <v>132</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21.35">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
         <v>132</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21.35">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
         <v>132</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21.35">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
         <v>132</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21.35">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
         <v>132</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21.35">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
         <v>132</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21.35">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
         <v>132</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21.35">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
         <v>132</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21.35">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
         <v>132</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21.35">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
         <v>132</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21.35">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
         <v>132</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21.35">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
         <v>132</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21.35">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
         <v>132</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21.35">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
         <v>132</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21.35">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
         <v>132</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21.35">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
         <v>132</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21.35">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
         <v>132</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21.35">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
         <v>132</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21.35">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
         <v>132</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21.35">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
         <v>132</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21.35">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
         <v>132</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21.35">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
         <v>132</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21.35">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
         <v>132</v>
       </c>
@@ -3728,11 +3728,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21.35">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21.35">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
         <v>169</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21.35">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
         <v>169</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21.35">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
         <v>169</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21.35">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
         <v>169</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21.35">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
         <v>169</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21.35">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
         <v>169</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21.35">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
         <v>169</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21.35">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
         <v>169</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21.35">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
         <v>169</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21.35">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
         <v>169</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21.35">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
         <v>169</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21.35">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
         <v>169</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21.35">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
         <v>169</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21.35">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
         <v>169</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21.35">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
         <v>169</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21.35">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
         <v>169</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21.35">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
         <v>169</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21.35">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
         <v>169</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21.35">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
         <v>169</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21.35">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
         <v>169</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21.35">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
         <v>169</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21.35">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
         <v>169</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21.35">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
         <v>169</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21.35">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
         <v>169</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21.35">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
         <v>169</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21.35">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
         <v>169</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21.35">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
         <v>169</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21.35">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
         <v>169</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21.35">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
         <v>169</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21.35">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
         <v>169</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21.35">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
         <v>169</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21.35">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
         <v>169</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21.35">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
         <v>169</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21.35">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
         <v>169</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21.35">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
         <v>169</v>
       </c>
@@ -4117,17 +4117,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21.35">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
     </row>
-    <row r="213" spans="1:3" ht="21.35">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="21.35">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
         <v>205</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21.35">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
         <v>205</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21.35">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
         <v>205</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21.35">
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
         <v>205</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21.35">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
         <v>205</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21.35">
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
         <v>205</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21.35">
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
         <v>205</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21.35">
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
         <v>205</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21.35">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
         <v>205</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21.35">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
         <v>205</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21.35">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
         <v>205</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21.35">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
         <v>205</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21.35">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
         <v>205</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21.35">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
         <v>205</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21.35">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
         <v>205</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21.35">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
         <v>205</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21.35">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
         <v>205</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21.35">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
         <v>205</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21.35">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
         <v>205</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21.35">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
         <v>205</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21.35">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
         <v>205</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21.35">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
         <v>205</v>
       </c>
@@ -4369,15 +4369,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21.35">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" ht="21.35">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="21.35">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
         <v>228</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21.35">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
         <v>228</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21.35">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
         <v>228</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21.35">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
         <v>228</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21.35">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
         <v>228</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21.35">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
         <v>228</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21.35">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
         <v>228</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21.35">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
         <v>228</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21.35">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
         <v>228</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21.35">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
         <v>228</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21.35">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
         <v>228</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21.35">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
         <v>228</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21.35">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
         <v>228</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21.35">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
         <v>228</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21.35">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
         <v>228</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21.35">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
         <v>228</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21.35">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
         <v>228</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21.35">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
         <v>228</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21.35">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
         <v>228</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21.35">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
         <v>228</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21.35">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
         <v>228</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21.35">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
         <v>228</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21.35">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
         <v>228</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21.35">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
         <v>228</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21.35">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
         <v>228</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21.35">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
         <v>228</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21.35">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
         <v>228</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21.35">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
         <v>228</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21.35">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
         <v>228</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21.35">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
         <v>228</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21.35">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
         <v>228</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21.35">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
         <v>228</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21.35">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
         <v>228</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21.35">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
         <v>228</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21.35">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
         <v>228</v>
       </c>
@@ -4762,15 +4762,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21.35">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:3" ht="21.35">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3" ht="21.35">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
         <v>263</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21.35">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
         <v>263</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21.35">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
         <v>263</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21.35">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
         <v>263</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21.35">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
         <v>263</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21.35">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
         <v>263</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21.35">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
         <v>263</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21.35">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
         <v>263</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21.35">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
         <v>263</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21.35">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
         <v>263</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21.35">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
         <v>263</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21.35">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
         <v>263</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21.35">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
         <v>263</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21.35">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
         <v>263</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21.35">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
         <v>263</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21.35">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
         <v>263</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21.35">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
         <v>263</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21.35">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
         <v>263</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21.35">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
         <v>263</v>
       </c>
@@ -4979,15 +4979,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21.35">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:3" ht="21.35">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:3" ht="21.35">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
         <v>283</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21.35">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
         <v>283</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21.35">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
         <v>283</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21.35">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
         <v>283</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21.35">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
         <v>283</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21.35">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
         <v>283</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21.35">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
         <v>283</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21.35">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
         <v>283</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21.35">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
         <v>283</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21.35">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
         <v>283</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21.35">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
         <v>283</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21.35">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
         <v>283</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21.35">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
         <v>283</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21.35">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
         <v>283</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21.35">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
         <v>283</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21.35">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
         <v>283</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21.35">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
         <v>283</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21.35">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
         <v>283</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21.35">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
         <v>283</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21.35">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
         <v>283</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21.35">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
         <v>283</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21.35">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
         <v>283</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21.35">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
         <v>283</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21.35">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
         <v>283</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21.35">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
         <v>283</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21.35">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
         <v>283</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21.35">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
         <v>283</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21.35">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
         <v>283</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21.35">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
         <v>283</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21.35">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
         <v>283</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21.35">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
         <v>283</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21.35">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
         <v>283</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21.35">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
         <v>283</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21.35">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
         <v>283</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21.35">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
         <v>283</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21.35">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
         <v>283</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21.35">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
         <v>283</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21.35">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
         <v>283</v>
       </c>
@@ -5405,15 +5405,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21.35">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" ht="21.35">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" ht="21.35">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
         <v>322</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21.35">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
         <v>322</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21.35">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
         <v>322</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21.35">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
         <v>322</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21.35">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
         <v>322</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21.35">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
         <v>322</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21.35">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
         <v>322</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21.35">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
         <v>322</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21.35">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
         <v>322</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21.35">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
         <v>322</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21.35">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
         <v>322</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21.35">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
         <v>322</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21.35">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
         <v>322</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21.35">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
         <v>322</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21.35">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
         <v>322</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21.35">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
         <v>322</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21.35">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
         <v>322</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21.35">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
         <v>322</v>
       </c>
@@ -5611,15 +5611,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21.35">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" ht="21.35">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" ht="21.35">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
         <v>341</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21.35">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
         <v>341</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21.35">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
         <v>341</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21.35">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
         <v>341</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21.35">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
         <v>341</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21.35">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
         <v>341</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21.35">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
         <v>341</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21.35">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
         <v>341</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21.35">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
         <v>341</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21.35">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
         <v>341</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21.35">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
         <v>341</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21.35">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
         <v>341</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21.35">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
         <v>341</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21.35">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
         <v>341</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21.35">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
         <v>341</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21.35">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
         <v>341</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21.35">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
         <v>341</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21.35">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
         <v>341</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21.35">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
         <v>341</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21.35">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
         <v>341</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21.35">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
         <v>341</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21.35">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
         <v>341</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21.35">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
         <v>341</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21.35">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
         <v>341</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21.35">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
         <v>341</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21.35">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
         <v>341</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21.35">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
         <v>341</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21.35">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
         <v>341</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21.35">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
         <v>341</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21.35">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
         <v>341</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21.35">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
         <v>341</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21.35">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
         <v>341</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21.35">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
         <v>341</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21.35">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
         <v>341</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21.35">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
         <v>341</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21.35">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
         <v>341</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21.35">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
         <v>341</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21.35">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
         <v>341</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21.35">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
         <v>341</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21.35">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
         <v>341</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21.35">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
         <v>341</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21.35">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
         <v>341</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21.35">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
         <v>341</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21.35">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
         <v>341</v>
       </c>
@@ -6103,15 +6103,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21.35">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="1:3" ht="21.35">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="1:3" ht="21.35">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
         <v>385</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21.35">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
         <v>385</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21.35">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
         <v>385</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21.35">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
         <v>385</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21.35">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
         <v>385</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21.35">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
         <v>385</v>
       </c>
@@ -6177,15 +6177,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21.35">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="1:3" ht="21.35">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:3" ht="21.35">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="15" t="s">
         <v>391</v>
       </c>
@@ -6196,18 +6196,18 @@
         <v>462</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21.35">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C411" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="21.35">
+      <c r="C411" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
         <v>391</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21.35">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
         <v>391</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21.35">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
         <v>391</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21.35">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
         <v>391</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21.35">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
         <v>391</v>
       </c>
@@ -6262,18 +6262,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21.35">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C417" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="21.35">
+      <c r="C417" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
         <v>391</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21.35">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
         <v>391</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21.35">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
         <v>391</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21.35">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
         <v>391</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21.35">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
         <v>391</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21.35">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
         <v>391</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21.35">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
         <v>391</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21.35">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
         <v>391</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21.35">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
         <v>391</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21.35">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
         <v>391</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21.35">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
         <v>391</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21.35">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
         <v>391</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21.35">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
         <v>391</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21.35">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
         <v>391</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21.35">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
         <v>391</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21.35">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
         <v>391</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21.35">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
         <v>391</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21.35">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
         <v>391</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21.35">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
         <v>391</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21.35">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
         <v>391</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21.35">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
         <v>391</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21.35">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
         <v>391</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21.35">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
         <v>391</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21.35">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
         <v>391</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21.35">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
         <v>391</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21.35">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
         <v>391</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21.35">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
         <v>391</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21.35">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
         <v>391</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21.35">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
         <v>391</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21.35">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
         <v>391</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21.35">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
         <v>391</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21.35">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
         <v>391</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21.35">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
         <v>391</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21.35">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
         <v>391</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21.35">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
         <v>391</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21.35">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
         <v>391</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21.35">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
         <v>391</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21.35">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
         <v>391</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21.35">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
         <v>391</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21.35">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
         <v>391</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21.35">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
         <v>391</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21.35">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
         <v>391</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21.35">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
         <v>391</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21.35">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
         <v>391</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21.35">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
         <v>391</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21.35">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
         <v>391</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21.35">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
         <v>391</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21.35">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
         <v>391</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21.35">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
         <v>391</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21.35">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
         <v>391</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21.35">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
         <v>391</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21.35">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
         <v>391</v>
       </c>
@@ -6845,18 +6845,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21.35">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="7"/>
       <c r="C470" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="21.35">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:3" ht="21.35">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
         <v>451</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21.35">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
         <v>451</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21.35">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
         <v>451</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21.35">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
         <v>451</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21.35">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
         <v>451</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21.35">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
         <v>451</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21.35">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
         <v>451</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21.35">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
         <v>451</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21.35">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
         <v>451</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21.35">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
         <v>451</v>
       </c>

--- a/DSA_questions.xlsx
+++ b/DSA_questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F791F783-C85F-49E9-9050-9DA0C3017ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF952EF-0480-49F1-8385-5504B781BE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E416" sqref="E416"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="15.5"/>
@@ -3526,8 +3526,8 @@
       <c r="B156" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C156" s="16" t="s">
-        <v>468</v>
+      <c r="C156" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
@@ -3537,8 +3537,8 @@
       <c r="B157" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C157" s="16" t="s">
-        <v>468</v>
+      <c r="C157" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
@@ -3548,8 +3548,8 @@
       <c r="B158" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C158" s="16" t="s">
-        <v>468</v>
+      <c r="C158" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
@@ -3559,8 +3559,8 @@
       <c r="B159" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C159" s="16" t="s">
-        <v>468</v>
+      <c r="C159" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
@@ -3570,8 +3570,8 @@
       <c r="B160" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C160" s="16" t="s">
-        <v>468</v>
+      <c r="C160" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21">
@@ -3581,8 +3581,8 @@
       <c r="B161" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C161" s="16" t="s">
-        <v>468</v>
+      <c r="C161" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
@@ -3592,8 +3592,8 @@
       <c r="B162" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C162" s="16" t="s">
-        <v>468</v>
+      <c r="C162" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
@@ -3603,8 +3603,8 @@
       <c r="B163" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C163" s="16" t="s">
-        <v>468</v>
+      <c r="C163" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
@@ -3614,8 +3614,8 @@
       <c r="B164" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C164" s="16" t="s">
-        <v>468</v>
+      <c r="C164" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
@@ -3625,8 +3625,8 @@
       <c r="B165" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C165" s="16" t="s">
-        <v>468</v>
+      <c r="C165" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21">
@@ -3739,8 +3739,8 @@
       <c r="B177" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>3</v>
+      <c r="C177" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3750,8 +3750,8 @@
       <c r="B178" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>3</v>
+      <c r="C178" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3761,8 +3761,8 @@
       <c r="B179" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>3</v>
+      <c r="C179" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3772,8 +3772,8 @@
       <c r="B180" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>3</v>
+      <c r="C180" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -5626,8 +5626,8 @@
       <c r="B356" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C356" s="4" t="s">
-        <v>3</v>
+      <c r="C356" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
@@ -5637,8 +5637,8 @@
       <c r="B357" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C357" s="4" t="s">
-        <v>3</v>
+      <c r="C357" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5659,8 +5659,8 @@
       <c r="B359" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C359" s="4" t="s">
-        <v>3</v>
+      <c r="C359" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
@@ -6214,8 +6214,8 @@
       <c r="B412" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C412" s="4" t="s">
-        <v>3</v>
+      <c r="C412" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
@@ -6258,8 +6258,8 @@
       <c r="B416" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C416" s="4" t="s">
-        <v>3</v>
+      <c r="C416" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
@@ -6280,8 +6280,8 @@
       <c r="B418" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C418" s="4" t="s">
-        <v>3</v>
+      <c r="C418" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
@@ -6291,8 +6291,8 @@
       <c r="B419" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C419" s="4" t="s">
-        <v>3</v>
+      <c r="C419" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
@@ -6588,8 +6588,8 @@
       <c r="B446" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C446" s="4" t="s">
-        <v>3</v>
+      <c r="C446" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
@@ -6599,8 +6599,8 @@
       <c r="B447" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C447" s="4" t="s">
-        <v>3</v>
+      <c r="C447" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="21">
@@ -6863,8 +6863,8 @@
       <c r="B472" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C472" s="4" t="s">
-        <v>3</v>
+      <c r="C472" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">

--- a/DSA_questions.xlsx
+++ b/DSA_questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF952EF-0480-49F1-8385-5504B781BE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59163896-2BC1-441A-8E70-24701A6F0D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="15.5"/>
@@ -5670,8 +5670,8 @@
       <c r="B360" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C360" s="4" t="s">
-        <v>3</v>
+      <c r="C360" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
@@ -5703,8 +5703,8 @@
       <c r="B363" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C363" s="4" t="s">
-        <v>3</v>
+      <c r="C363" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
@@ -5736,8 +5736,8 @@
       <c r="B366" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C366" s="4" t="s">
-        <v>3</v>
+      <c r="C366" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
@@ -6225,8 +6225,8 @@
       <c r="B413" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C413" s="4" t="s">
-        <v>3</v>
+      <c r="C413" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
